--- a/doc-contents/_components/xlsx-to-html-table/test-file.xlsx
+++ b/doc-contents/_components/xlsx-to-html-table/test-file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/_components/xlsx-to-html-table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93000CEC-1BE2-E647-AD1A-5477F640FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B23A60E-6FBB-E541-B9A7-9A3ED3B53C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2480" windowWidth="28040" windowHeight="17440" xr2:uid="{73274178-8829-3E42-AE5B-34F9C664A0A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Col 1</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>again, merged cells</t>
+  </si>
+  <si>
+    <t>Col 5</t>
+  </si>
+  <si>
+    <t>rotated text</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,7 +153,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="104"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D82122-2448-994B-94EB-064C238D96A0}">
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C11" sqref="C11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +506,7 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -502,7 +514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -515,8 +527,11 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -531,8 +546,11 @@
         <f>B4*$C$1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <f>B4+1</f>
         <v>2</v>
@@ -548,8 +566,9 @@
         <f t="shared" ref="E5:E13" si="1">B5*$C$1</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B13" si="2">B5+1</f>
         <v>3</v>
@@ -565,8 +584,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -582,8 +602,9 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -599,8 +620,9 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -616,8 +638,9 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -627,49 +650,54 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
+      <c r="F13" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:D13"/>
+    <mergeCell ref="F4:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
